--- a/data-raw/BITRE-damage-costs.xlsx
+++ b/data-raw/BITRE-damage-costs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lffox/Dropbox (Grattan Institute)/Transport Program/Project - Trucks/Analysis/truck-modelling/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lffox/Dropbox (Grattan Institute)/Transport Program/Project - Trucks/Analysis/truck-modelling/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DBFD66-16F3-B04F-9BB6-3EBEDFD53A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B520C-7EC3-D640-B0A5-48E2D9C9DC46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -3393,10 +3393,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE40FD6-2E8C-4D40-8159-A85F858D5D5E}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6315,6 +6315,476 @@
         <v>5554.0800000000008</v>
       </c>
     </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>2051</v>
+      </c>
+      <c r="B63" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D63" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F63" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H63" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I63" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J63" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K63" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L63" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M63" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N63" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O63" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>2052</v>
+      </c>
+      <c r="B64" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D64" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F64" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H64" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I64" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J64" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K64" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L64" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M64" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N64" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O64" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>2053</v>
+      </c>
+      <c r="B65" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D65" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F65" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H65" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I65" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J65" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L65" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M65" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N65" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O65" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>2054</v>
+      </c>
+      <c r="B66" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D66" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F66" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H66" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M66" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N66" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O66" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>2055</v>
+      </c>
+      <c r="B67" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D67" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F67" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H67" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I67" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J67" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K67" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L67" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M67" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N67" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O67" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>2056</v>
+      </c>
+      <c r="B68" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D68" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F68" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H68" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I68" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J68" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K68" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L68" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M68" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N68" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O68" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>2057</v>
+      </c>
+      <c r="B69" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D69" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F69" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H69" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I69" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J69" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K69" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L69" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M69" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N69" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O69" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>2058</v>
+      </c>
+      <c r="B70" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D70" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F70" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H70" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K70" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L70" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M70" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N70" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O70" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>2059</v>
+      </c>
+      <c r="B71" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D71" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F71" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H71" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I71" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J71" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K71" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L71" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M71" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N71" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O71" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>2060</v>
+      </c>
+      <c r="B72" s="3">
+        <v>63.489209598592581</v>
+      </c>
+      <c r="C72" s="3">
+        <v>2.94</v>
+      </c>
+      <c r="D72" s="3">
+        <v>17222.78374769412</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1758.46</v>
+      </c>
+      <c r="F72" s="3">
+        <v>37880.956344169455</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1595.88</v>
+      </c>
+      <c r="H72" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K72" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L72" s="3">
+        <v>533269.27500000002</v>
+      </c>
+      <c r="M72" s="3">
+        <v>106653.85500000003</v>
+      </c>
+      <c r="N72" s="3">
+        <v>6942.6</v>
+      </c>
+      <c r="O72" s="3">
+        <v>5554.0800000000008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
